--- a/testRecord.xlsx
+++ b/testRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS\Codes\Go\Animal_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8250E6F0-1092-42E2-A724-479995E7F23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4AF26D4-6CCC-4241-BBD3-397D4E456670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38580" windowHeight="20010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="7860" windowWidth="38085" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="63">
   <si>
     <r>
       <rPr>
@@ -343,33 +343,11 @@
     <t>武威市</t>
   </si>
   <si>
-    <t>古浪县</t>
-  </si>
-  <si>
-    <t>古浪镇</t>
-  </si>
-  <si>
-    <t>山斑鸠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>家燕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰斑鸠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>喜鹊</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>岩鸽</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金翅雀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -390,10 +368,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>红尾伯劳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -420,62 +394,77 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>城关镇</t>
-  </si>
-  <si>
-    <t>灰背伯劳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>赭红尾鸲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>凤头百灵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>雉鸡</t>
-  </si>
-  <si>
-    <t>黄鹡鸰</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>西城区</t>
-  </si>
-  <si>
-    <t>朝阳区</t>
-  </si>
-  <si>
-    <t>丰台区</t>
-  </si>
-  <si>
-    <t>石景山区</t>
-  </si>
-  <si>
-    <t>海淀区</t>
-  </si>
-  <si>
-    <t>门头沟区</t>
-  </si>
-  <si>
-    <t>房山区</t>
-  </si>
-  <si>
-    <t>古浪县</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>东城区</t>
+    <t>凉州区</t>
+  </si>
+  <si>
+    <t>东大街街道</t>
+  </si>
+  <si>
+    <t>天祝藏族自治县</t>
+  </si>
+  <si>
+    <t>华藏寺镇</t>
+  </si>
+  <si>
+    <t>民勤县</t>
+  </si>
+  <si>
+    <t>三雷镇</t>
+  </si>
+  <si>
+    <t>张掖市</t>
+  </si>
+  <si>
+    <t>山丹县</t>
+  </si>
+  <si>
+    <t>清泉镇</t>
+  </si>
+  <si>
+    <t>红隼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高山兀鹫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红嘴山鸦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白鹡鸰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉红胸鹨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白腰草鹬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>稀树草鹀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戴胜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜马拉雅旱獭</t>
+  </si>
+  <si>
+    <t>地山雀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -563,12 +552,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -598,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -627,17 +622,20 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -919,11 +917,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE30"/>
+  <dimension ref="A1:BE47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T28" sqref="T28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -933,6 +931,7 @@
     <col min="19" max="19" width="27.125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25.75" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="56.25" x14ac:dyDescent="0.2">
@@ -993,7 +992,7 @@
       <c r="S1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="10" t="s">
         <v>29</v>
       </c>
       <c r="U1" s="3" t="s">
@@ -1029,7 +1028,7 @@
         <v>388</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
@@ -1059,32 +1058,32 @@
       <c r="P2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>37</v>
+      <c r="S2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="U2" s="9">
-        <v>37.5232889782637</v>
+        <v>39.7157749906182</v>
       </c>
       <c r="V2" s="9">
-        <v>103.492798972874</v>
-      </c>
-      <c r="W2" s="4">
-        <v>1812.775269</v>
-      </c>
-      <c r="X2" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y2" s="11">
-        <v>0.4745138888888889</v>
+        <v>98.8299159798771</v>
+      </c>
+      <c r="W2" s="12">
+        <v>1372.5351559999899</v>
+      </c>
+      <c r="X2" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>0.43462962962962964</v>
       </c>
     </row>
     <row r="3" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1104,7 +1103,7 @@
         <v>388</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="G3" s="4">
         <v>1</v>
@@ -1134,32 +1133,32 @@
       <c r="P3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>37</v>
+      <c r="S3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="U3" s="9">
-        <v>37.5232889782637</v>
+        <v>39.713092027232001</v>
       </c>
       <c r="V3" s="9">
-        <v>103.492798972874</v>
-      </c>
-      <c r="W3" s="4">
-        <v>1812.775269</v>
-      </c>
-      <c r="X3" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y3" s="11">
-        <v>0.4745138888888889</v>
+        <v>98.837862024083705</v>
+      </c>
+      <c r="W3" s="12">
+        <v>1371.6759030000001</v>
+      </c>
+      <c r="X3" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>0.43873842592592593</v>
       </c>
     </row>
     <row r="4" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1179,7 +1178,7 @@
         <v>389</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
@@ -1209,32 +1208,32 @@
       <c r="P4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="Q4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>37</v>
+      <c r="S4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="U4" s="9">
-        <v>37.524583982303703</v>
+        <v>39.712360035628002</v>
       </c>
       <c r="V4" s="9">
-        <v>103.494441993534</v>
-      </c>
-      <c r="W4" s="4">
-        <v>1811.1419679999899</v>
-      </c>
-      <c r="X4" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y4" s="11">
-        <v>0.47590277777777779</v>
+        <v>98.843015972524796</v>
+      </c>
+      <c r="W4" s="12">
+        <v>1371.2764890000001</v>
+      </c>
+      <c r="X4" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>0.44217592592592592</v>
       </c>
     </row>
     <row r="5" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1254,7 +1253,7 @@
         <v>389</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4">
         <v>6</v>
@@ -1284,32 +1283,32 @@
       <c r="P5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="13" t="s">
+      <c r="Q5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="13" t="s">
+      <c r="R5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>37</v>
+      <c r="S5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="U5" s="9">
-        <v>37.524583982303703</v>
+        <v>39.710272019728997</v>
       </c>
       <c r="V5" s="9">
-        <v>103.494441993534</v>
-      </c>
-      <c r="W5" s="4">
-        <v>1811.1419679999899</v>
-      </c>
-      <c r="X5" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y5" s="11">
-        <v>0.47590277777777779</v>
+        <v>98.849840015172902</v>
+      </c>
+      <c r="W5" s="12">
+        <v>1371.7813719999899</v>
+      </c>
+      <c r="X5" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>0.45172453703703702</v>
       </c>
     </row>
     <row r="6" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1329,7 +1328,7 @@
         <v>389</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4">
         <v>1</v>
@@ -1359,32 +1358,32 @@
       <c r="P6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>37</v>
+      <c r="S6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="U6" s="9">
-        <v>37.524583982303703</v>
+        <v>39.706376027315798</v>
       </c>
       <c r="V6" s="9">
-        <v>103.494441993534</v>
-      </c>
-      <c r="W6" s="4">
-        <v>1811.1419679999899</v>
-      </c>
-      <c r="X6" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>0.47590277777777779</v>
+        <v>98.856947030872107</v>
+      </c>
+      <c r="W6" s="12">
+        <v>1372.3041989999899</v>
+      </c>
+      <c r="X6" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>0.45855324074074072</v>
       </c>
     </row>
     <row r="7" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1404,7 +1403,7 @@
         <v>390</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="4">
         <v>2</v>
@@ -1434,32 +1433,32 @@
       <c r="P7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="Q7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="13" t="s">
+      <c r="R7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="13" t="s">
-        <v>37</v>
+      <c r="S7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="U7" s="9">
-        <v>37.526477035135002</v>
+        <v>39.705259976908501</v>
       </c>
       <c r="V7" s="9">
-        <v>103.496775012463</v>
-      </c>
-      <c r="W7" s="4">
-        <v>1807.9520259999899</v>
-      </c>
-      <c r="X7" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0.47832175925925924</v>
+        <v>98.859189022332401</v>
+      </c>
+      <c r="W7" s="12">
+        <v>1370.7723390000001</v>
+      </c>
+      <c r="X7" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>0.46023148148148146</v>
       </c>
     </row>
     <row r="8" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1479,7 +1478,7 @@
         <v>390</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G8" s="4">
         <v>3</v>
@@ -1509,32 +1508,32 @@
       <c r="P8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>37</v>
+      <c r="S8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="U8" s="9">
-        <v>37.526477035135002</v>
+        <v>39.7007970325648</v>
       </c>
       <c r="V8" s="9">
-        <v>103.496775012463</v>
-      </c>
-      <c r="W8" s="4">
-        <v>1807.9520259999899</v>
-      </c>
-      <c r="X8" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0.47832175925925924</v>
+        <v>98.865976016968403</v>
+      </c>
+      <c r="W8" s="12">
+        <v>1370.560669</v>
+      </c>
+      <c r="X8" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>0.46471064814814816</v>
       </c>
     </row>
     <row r="9" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1554,7 +1553,7 @@
         <v>390</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G9" s="4">
         <v>3</v>
@@ -1584,32 +1583,32 @@
       <c r="P9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>37</v>
+      <c r="S9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="U9" s="9">
-        <v>37.526477035135002</v>
+        <v>39.771362012252197</v>
       </c>
       <c r="V9" s="9">
-        <v>103.496775012463</v>
-      </c>
-      <c r="W9" s="4">
-        <v>1807.9520259999899</v>
-      </c>
-      <c r="X9" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>0.47832175925925924</v>
+        <v>98.623993992805396</v>
+      </c>
+      <c r="W9" s="12">
+        <v>1418.875732</v>
+      </c>
+      <c r="X9" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>0.52954861111111107</v>
       </c>
     </row>
     <row r="10" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1629,7 +1628,7 @@
         <v>390</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -1659,32 +1658,32 @@
       <c r="P10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="13" t="s">
+      <c r="Q10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="13" t="s">
+      <c r="R10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>37</v>
+      <c r="S10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="U10" s="9">
-        <v>37.526477035135002</v>
+        <v>39.771362012252197</v>
       </c>
       <c r="V10" s="9">
-        <v>103.496775012463</v>
-      </c>
-      <c r="W10" s="4">
-        <v>1807.9520259999899</v>
-      </c>
-      <c r="X10" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>0.47832175925925924</v>
+        <v>98.623993992805396</v>
+      </c>
+      <c r="W10" s="12">
+        <v>1418.875732</v>
+      </c>
+      <c r="X10" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>0.52954861111111107</v>
       </c>
     </row>
     <row r="11" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1704,7 +1703,7 @@
         <v>391</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="G11" s="4">
         <v>4</v>
@@ -1734,32 +1733,32 @@
       <c r="P11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>37</v>
+      <c r="S11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="U11" s="9">
-        <v>37.528510987758601</v>
+        <v>39.771362012252197</v>
       </c>
       <c r="V11" s="9">
-        <v>103.499448001384</v>
-      </c>
-      <c r="W11" s="4">
-        <v>1801.6785890000001</v>
-      </c>
-      <c r="X11" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>0.48344907407407406</v>
+        <v>98.623993992805396</v>
+      </c>
+      <c r="W11" s="12">
+        <v>1418.875732</v>
+      </c>
+      <c r="X11" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0.52954861111111107</v>
       </c>
     </row>
     <row r="12" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1779,7 +1778,7 @@
         <v>391</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="G12" s="4">
         <v>5</v>
@@ -1809,32 +1808,32 @@
       <c r="P12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>37</v>
+      <c r="S12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="U12" s="9">
-        <v>37.528510987758601</v>
+        <v>39.771529985591698</v>
       </c>
       <c r="V12" s="9">
-        <v>103.499448001384</v>
-      </c>
-      <c r="W12" s="4">
-        <v>1801.6785890000001</v>
-      </c>
-      <c r="X12" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>0.48344907407407406</v>
+        <v>98.644300997257204</v>
+      </c>
+      <c r="W12" s="12">
+        <v>1408.6719969999899</v>
+      </c>
+      <c r="X12" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>0.53828703703703706</v>
       </c>
     </row>
     <row r="13" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
@@ -1854,7 +1853,7 @@
         <v>391</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="G13" s="4">
         <v>2</v>
@@ -1884,61 +1883,61 @@
       <c r="P13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="13" t="s">
+      <c r="Q13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>37</v>
+      <c r="S13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="U13" s="9">
-        <v>37.528510987758601</v>
+        <v>39.771529985591698</v>
       </c>
       <c r="V13" s="9">
-        <v>103.499448001384</v>
-      </c>
-      <c r="W13" s="4">
-        <v>1801.6785890000001</v>
-      </c>
-      <c r="X13" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>0.48344907407407406</v>
-      </c>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="13"/>
-      <c r="AL13" s="13"/>
-      <c r="AM13" s="13"/>
-      <c r="AN13" s="13"/>
-      <c r="AO13" s="13"/>
-      <c r="AP13" s="13"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="13"/>
-      <c r="AS13" s="13"/>
-      <c r="AT13" s="13"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="13"/>
-      <c r="AW13" s="13"/>
-      <c r="AX13" s="13"/>
-      <c r="AY13" s="13"/>
-      <c r="AZ13" s="13"/>
-      <c r="BA13" s="13"/>
-      <c r="BB13" s="13"/>
-      <c r="BC13" s="13"/>
-      <c r="BD13" s="13"/>
-      <c r="BE13" s="13"/>
+        <v>98.644300997257204</v>
+      </c>
+      <c r="W13" s="12">
+        <v>1408.6719969999899</v>
+      </c>
+      <c r="X13" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>0.53828703703703706</v>
+      </c>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+      <c r="AZ13" s="11"/>
+      <c r="BA13" s="11"/>
+      <c r="BB13" s="11"/>
+      <c r="BC13" s="11"/>
+      <c r="BD13" s="11"/>
+      <c r="BE13" s="11"/>
     </row>
     <row r="14" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -1957,7 +1956,7 @@
         <v>392</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="G14" s="4">
         <v>2</v>
@@ -1987,61 +1986,61 @@
       <c r="P14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" s="13" t="s">
-        <v>37</v>
+      <c r="S14" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="U14" s="9">
-        <v>37.530083013698402</v>
+        <v>39.772088974714201</v>
       </c>
       <c r="V14" s="9">
-        <v>103.501437027007</v>
-      </c>
-      <c r="W14" s="4">
-        <v>1799.283447</v>
-      </c>
-      <c r="X14" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y14" s="11">
-        <v>0.48630787037037032</v>
-      </c>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="13"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="13"/>
-      <c r="AL14" s="13"/>
-      <c r="AM14" s="13"/>
-      <c r="AN14" s="13"/>
-      <c r="AO14" s="13"/>
-      <c r="AP14" s="13"/>
-      <c r="AQ14" s="13"/>
-      <c r="AR14" s="13"/>
-      <c r="AS14" s="13"/>
-      <c r="AT14" s="13"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="13"/>
-      <c r="AW14" s="13"/>
-      <c r="AX14" s="13"/>
-      <c r="AY14" s="13"/>
-      <c r="AZ14" s="13"/>
-      <c r="BA14" s="13"/>
-      <c r="BB14" s="13"/>
-      <c r="BC14" s="13"/>
-      <c r="BD14" s="13"/>
-      <c r="BE14" s="13"/>
+        <v>98.651924002915607</v>
+      </c>
+      <c r="W14" s="12">
+        <v>1406.723389</v>
+      </c>
+      <c r="X14" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>0.54121527777777778</v>
+      </c>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
     </row>
     <row r="15" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -2060,7 +2059,7 @@
         <v>392</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -2090,61 +2089,61 @@
       <c r="P15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="13" t="s">
+      <c r="Q15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S15" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" s="13" t="s">
-        <v>37</v>
+      <c r="S15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="U15" s="9">
-        <v>37.530083013698402</v>
+        <v>39.772088974714201</v>
       </c>
       <c r="V15" s="9">
-        <v>103.501437027007</v>
-      </c>
-      <c r="W15" s="4">
-        <v>1799.283447</v>
-      </c>
-      <c r="X15" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>0.48630787037037032</v>
-      </c>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="13"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="13"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="13"/>
-      <c r="AN15" s="13"/>
-      <c r="AO15" s="13"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="13"/>
-      <c r="AR15" s="13"/>
-      <c r="AS15" s="13"/>
-      <c r="AT15" s="13"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="13"/>
-      <c r="AW15" s="13"/>
-      <c r="AX15" s="13"/>
-      <c r="AY15" s="13"/>
-      <c r="AZ15" s="13"/>
-      <c r="BA15" s="13"/>
-      <c r="BB15" s="13"/>
-      <c r="BC15" s="13"/>
-      <c r="BD15" s="13"/>
-      <c r="BE15" s="13"/>
+        <v>98.651924002915607</v>
+      </c>
+      <c r="W15" s="12">
+        <v>1406.723389</v>
+      </c>
+      <c r="X15" s="13">
+        <v>44057</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>0.54121527777777778</v>
+      </c>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+      <c r="AZ15" s="11"/>
+      <c r="BA15" s="11"/>
+      <c r="BB15" s="11"/>
+      <c r="BC15" s="11"/>
+      <c r="BD15" s="11"/>
+      <c r="BE15" s="11"/>
     </row>
     <row r="16" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -2163,7 +2162,7 @@
         <v>393</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -2193,61 +2192,61 @@
       <c r="P16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="13" t="s">
+      <c r="Q16" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R16" s="13" t="s">
+      <c r="R16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>37</v>
+      <c r="S16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="U16" s="9">
-        <v>37.5309229642152</v>
+        <v>40.395259000360902</v>
       </c>
       <c r="V16" s="9">
-        <v>103.50257897749501</v>
-      </c>
-      <c r="W16" s="4">
-        <v>1797.611206</v>
-      </c>
-      <c r="X16" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y16" s="11">
-        <v>0.4876388888888889</v>
-      </c>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
-      <c r="AT16" s="13"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="13"/>
-      <c r="AW16" s="13"/>
-      <c r="AX16" s="13"/>
-      <c r="AY16" s="13"/>
-      <c r="AZ16" s="13"/>
-      <c r="BA16" s="13"/>
-      <c r="BB16" s="13"/>
-      <c r="BC16" s="13"/>
-      <c r="BD16" s="13"/>
-      <c r="BE16" s="13"/>
+        <v>97.098682997748199</v>
+      </c>
+      <c r="W16" s="12">
+        <v>1407.8110349999899</v>
+      </c>
+      <c r="X16" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>0.35653935185185182</v>
+      </c>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -2266,7 +2265,7 @@
         <v>393</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4">
         <v>2</v>
@@ -2296,61 +2295,61 @@
       <c r="P17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q17" s="13" t="s">
+      <c r="Q17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="13" t="s">
+      <c r="R17" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S17" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>37</v>
+      <c r="S17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="U17" s="9">
-        <v>37.5309229642152</v>
+        <v>40.399125991389099</v>
       </c>
       <c r="V17" s="9">
-        <v>103.50257897749501</v>
-      </c>
-      <c r="W17" s="4">
-        <v>1797.611206</v>
-      </c>
-      <c r="X17" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y17" s="11">
-        <v>0.4876388888888889</v>
-      </c>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
-      <c r="AT17" s="13"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="13"/>
-      <c r="AW17" s="13"/>
-      <c r="AX17" s="13"/>
-      <c r="AY17" s="13"/>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="13"/>
-      <c r="BB17" s="13"/>
-      <c r="BC17" s="13"/>
-      <c r="BD17" s="13"/>
-      <c r="BE17" s="13"/>
+        <v>97.100870003923703</v>
+      </c>
+      <c r="W17" s="12">
+        <v>1407.2547609999899</v>
+      </c>
+      <c r="X17" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>0.35918981481481477</v>
+      </c>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+      <c r="AZ17" s="11"/>
+      <c r="BA17" s="11"/>
+      <c r="BB17" s="11"/>
+      <c r="BC17" s="11"/>
+      <c r="BD17" s="11"/>
+      <c r="BE17" s="11"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -2369,7 +2368,7 @@
         <v>394</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G18" s="4">
         <v>1</v>
@@ -2399,61 +2398,61 @@
       <c r="P18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q18" s="13" t="s">
+      <c r="Q18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T18" s="13" t="s">
-        <v>37</v>
+      <c r="S18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="U18" s="9">
-        <v>37.532146973535397</v>
+        <v>40.399125991389099</v>
       </c>
       <c r="V18" s="9">
-        <v>103.504201965406</v>
-      </c>
-      <c r="W18" s="4">
-        <v>1791.908081</v>
-      </c>
-      <c r="X18" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y18" s="11">
-        <v>0.48937499999999995</v>
-      </c>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="13"/>
-      <c r="AY18" s="13"/>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="13"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="13"/>
-      <c r="BD18" s="13"/>
-      <c r="BE18" s="13"/>
+        <v>97.100870003923703</v>
+      </c>
+      <c r="W18" s="12">
+        <v>1407.2547609999899</v>
+      </c>
+      <c r="X18" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>0.35918981481481477</v>
+      </c>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -2472,7 +2471,7 @@
         <v>394</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G19" s="4">
         <v>1</v>
@@ -2502,61 +2501,61 @@
       <c r="P19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="Q19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>37</v>
+      <c r="S19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="U19" s="9">
-        <v>37.532146973535397</v>
+        <v>40.399125991389099</v>
       </c>
       <c r="V19" s="9">
-        <v>103.504201965406</v>
-      </c>
-      <c r="W19" s="4">
-        <v>1791.908081</v>
-      </c>
-      <c r="X19" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y19" s="11">
-        <v>0.48937499999999995</v>
-      </c>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="13"/>
-      <c r="AL19" s="13"/>
-      <c r="AM19" s="13"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="13"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="13"/>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="13"/>
-      <c r="BB19" s="13"/>
-      <c r="BC19" s="13"/>
-      <c r="BD19" s="13"/>
-      <c r="BE19" s="13"/>
+        <v>97.100870003923703</v>
+      </c>
+      <c r="W19" s="12">
+        <v>1407.2547609999899</v>
+      </c>
+      <c r="X19" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>0.35918981481481477</v>
+      </c>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+      <c r="AZ19" s="11"/>
+      <c r="BA19" s="11"/>
+      <c r="BB19" s="11"/>
+      <c r="BC19" s="11"/>
+      <c r="BD19" s="11"/>
+      <c r="BE19" s="11"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -2575,7 +2574,7 @@
         <v>395</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G20" s="4">
         <v>2</v>
@@ -2605,61 +2604,61 @@
       <c r="P20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q20" s="13" t="s">
+      <c r="Q20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>37</v>
+      <c r="S20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="U20" s="9">
-        <v>37.534272959455798</v>
+        <v>40.402399040758603</v>
       </c>
       <c r="V20" s="9">
-        <v>103.50742396898499</v>
-      </c>
-      <c r="W20" s="4">
-        <v>1789.435547</v>
-      </c>
-      <c r="X20" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y20" s="11">
-        <v>0.49133101851851851</v>
-      </c>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
-      <c r="AT20" s="13"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="13"/>
-      <c r="AW20" s="13"/>
-      <c r="AX20" s="13"/>
-      <c r="AY20" s="13"/>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="13"/>
-      <c r="BB20" s="13"/>
-      <c r="BC20" s="13"/>
-      <c r="BD20" s="13"/>
-      <c r="BE20" s="13"/>
+        <v>97.1021500043571</v>
+      </c>
+      <c r="W20" s="12">
+        <v>1407.6685789999899</v>
+      </c>
+      <c r="X20" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>0.36166666666666664</v>
+      </c>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -2708,61 +2707,61 @@
       <c r="P21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R21" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>37</v>
+      <c r="S21" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="U21" s="9">
-        <v>37.534272959455798</v>
+        <v>40.409001968801</v>
       </c>
       <c r="V21" s="9">
-        <v>103.50742396898499</v>
-      </c>
-      <c r="W21" s="4">
-        <v>1789.435547</v>
-      </c>
-      <c r="X21" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y21" s="11">
-        <v>0.49133101851851851</v>
-      </c>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
-      <c r="AT21" s="13"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="13"/>
-      <c r="AW21" s="13"/>
-      <c r="AX21" s="13"/>
-      <c r="AY21" s="13"/>
-      <c r="AZ21" s="13"/>
-      <c r="BA21" s="13"/>
-      <c r="BB21" s="13"/>
-      <c r="BC21" s="13"/>
-      <c r="BD21" s="13"/>
-      <c r="BE21" s="13"/>
+        <v>97.104447986930595</v>
+      </c>
+      <c r="W21" s="12">
+        <v>1404.325317</v>
+      </c>
+      <c r="X21" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>0.36459490740740735</v>
+      </c>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
+      <c r="AB21" s="11"/>
+      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
+      <c r="AE21" s="11"/>
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="11"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="11"/>
+      <c r="AP21" s="11"/>
+      <c r="AQ21" s="11"/>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="11"/>
+      <c r="AW21" s="11"/>
+      <c r="AX21" s="11"/>
+      <c r="AY21" s="11"/>
+      <c r="AZ21" s="11"/>
+      <c r="BA21" s="11"/>
+      <c r="BB21" s="11"/>
+      <c r="BC21" s="11"/>
+      <c r="BD21" s="11"/>
+      <c r="BE21" s="11"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -2781,7 +2780,7 @@
         <v>396</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="G22" s="4">
         <v>1</v>
@@ -2811,71 +2810,71 @@
       <c r="P22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q22" s="13" t="s">
+      <c r="Q22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="R22" s="13" t="s">
+      <c r="R22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>37</v>
+      <c r="S22" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="U22" s="9">
-        <v>37.537708031013601</v>
+        <v>40.413879984989698</v>
       </c>
       <c r="V22" s="9">
-        <v>103.513546027243</v>
-      </c>
-      <c r="W22" s="4">
-        <v>1783.9182129999899</v>
-      </c>
-      <c r="X22" s="10">
-        <v>44048</v>
-      </c>
-      <c r="Y22" s="11">
-        <v>0.50255787037037036</v>
-      </c>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AJ22" s="13"/>
-      <c r="AK22" s="13"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
-      <c r="AO22" s="13"/>
-      <c r="AP22" s="13"/>
-      <c r="AQ22" s="13"/>
-      <c r="AR22" s="13"/>
-      <c r="AS22" s="13"/>
-      <c r="AT22" s="13"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="13"/>
-      <c r="AW22" s="13"/>
-      <c r="AX22" s="13"/>
-      <c r="AY22" s="13"/>
-      <c r="AZ22" s="13"/>
-      <c r="BA22" s="13"/>
-      <c r="BB22" s="13"/>
-      <c r="BC22" s="13"/>
-      <c r="BD22" s="13"/>
-      <c r="BE22" s="13"/>
+        <v>97.106325030326801</v>
+      </c>
+      <c r="W22" s="12">
+        <v>1402.6389160000001</v>
+      </c>
+      <c r="X22" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>0.36729166666666663</v>
+      </c>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
+      <c r="AB22" s="11"/>
+      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="11"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="11"/>
+      <c r="AP22" s="11"/>
+      <c r="AQ22" s="11"/>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="11"/>
+      <c r="AT22" s="11"/>
+      <c r="AU22" s="11"/>
+      <c r="AV22" s="11"/>
+      <c r="AW22" s="11"/>
+      <c r="AX22" s="11"/>
+      <c r="AY22" s="11"/>
+      <c r="AZ22" s="11"/>
+      <c r="BA22" s="11"/>
+      <c r="BB22" s="11"/>
+      <c r="BC22" s="11"/>
+      <c r="BD22" s="11"/>
+      <c r="BE22" s="11"/>
     </row>
     <row r="23" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B23" s="4">
         <v>18540</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D23" s="4">
         <v>3.1</v>
@@ -2884,7 +2883,7 @@
         <v>466</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G23" s="4">
         <v>2</v>
@@ -2900,7 +2899,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>22</v>
@@ -2909,76 +2908,76 @@
         <v>22</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q23" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R23" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="T23" s="13" t="s">
+      <c r="Q23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T23" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U23" s="9">
-        <v>38.3694870304316</v>
+        <v>40.413879984989698</v>
       </c>
       <c r="V23" s="9">
-        <v>102.834600973874</v>
-      </c>
-      <c r="W23" s="4">
-        <v>1419.4853519999899</v>
-      </c>
-      <c r="X23" s="10">
-        <v>44049</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>0.52665509259259258</v>
-      </c>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13"/>
+        <v>97.106325030326801</v>
+      </c>
+      <c r="W23" s="12">
+        <v>1402.6389160000001</v>
+      </c>
+      <c r="X23" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y23" s="14">
+        <v>0.36729166666666663</v>
+      </c>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="11"/>
+      <c r="AB23" s="11"/>
+      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="11"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="11"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="11"/>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="11"/>
+      <c r="AT23" s="11"/>
+      <c r="AU23" s="11"/>
+      <c r="AV23" s="11"/>
+      <c r="AW23" s="11"/>
+      <c r="AX23" s="11"/>
+      <c r="AY23" s="11"/>
+      <c r="AZ23" s="11"/>
+      <c r="BA23" s="11"/>
+      <c r="BB23" s="11"/>
+      <c r="BC23" s="11"/>
+      <c r="BD23" s="11"/>
+      <c r="BE23" s="11"/>
     </row>
     <row r="24" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4">
         <v>18540</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D24" s="4">
         <v>3.1</v>
@@ -2987,7 +2986,7 @@
         <v>467</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G24" s="4">
         <v>1</v>
@@ -3003,7 +3002,7 @@
         <v>22</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>22</v>
@@ -3012,76 +3011,76 @@
         <v>22</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="T24" s="13" t="s">
+      <c r="Q24" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T24" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U24" s="9">
-        <v>38.364443974569397</v>
+        <v>40.415508002042699</v>
       </c>
       <c r="V24" s="9">
-        <v>102.832082966342</v>
-      </c>
-      <c r="W24" s="4">
-        <v>1418.679443</v>
-      </c>
-      <c r="X24" s="10">
-        <v>44049</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>0.53150462962962963</v>
-      </c>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="13"/>
+        <v>97.109907958656507</v>
+      </c>
+      <c r="W24" s="12">
+        <v>1403.513672</v>
+      </c>
+      <c r="X24" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>0.37059027777777781</v>
+      </c>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="11"/>
+      <c r="AB24" s="11"/>
+      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="11"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="11"/>
+      <c r="AT24" s="11"/>
+      <c r="AU24" s="11"/>
+      <c r="AV24" s="11"/>
+      <c r="AW24" s="11"/>
+      <c r="AX24" s="11"/>
+      <c r="AY24" s="11"/>
+      <c r="AZ24" s="11"/>
+      <c r="BA24" s="11"/>
+      <c r="BB24" s="11"/>
+      <c r="BC24" s="11"/>
+      <c r="BD24" s="11"/>
+      <c r="BE24" s="11"/>
     </row>
     <row r="25" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4">
         <v>18540</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D25" s="4">
         <v>3.1</v>
@@ -3090,7 +3089,7 @@
         <v>468</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="G25" s="4">
         <v>1</v>
@@ -3106,7 +3105,7 @@
         <v>22</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>22</v>
@@ -3115,79 +3114,79 @@
         <v>22</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T25" s="13" t="s">
+      <c r="Q25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T25" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U25" s="9">
-        <v>38.359236968681202</v>
+        <v>40.415508002042699</v>
       </c>
       <c r="V25" s="9">
-        <v>102.830366017296</v>
-      </c>
-      <c r="W25" s="4">
-        <v>1420.1604</v>
-      </c>
-      <c r="X25" s="10">
-        <v>44049</v>
-      </c>
-      <c r="Y25" s="11">
-        <v>0.5354282407407408</v>
-      </c>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="13"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="13"/>
-      <c r="BD25" s="13"/>
-      <c r="BE25" s="13"/>
+        <v>97.109907958656507</v>
+      </c>
+      <c r="W25" s="12">
+        <v>1403.513672</v>
+      </c>
+      <c r="X25" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>0.37059027777777781</v>
+      </c>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="11"/>
+      <c r="AB25" s="11"/>
+      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="11"/>
+      <c r="AF25" s="11"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
+      <c r="AJ25" s="11"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="11"/>
+      <c r="AO25" s="11"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="11"/>
+      <c r="AT25" s="11"/>
+      <c r="AU25" s="11"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="11"/>
+      <c r="AX25" s="11"/>
+      <c r="AY25" s="11"/>
+      <c r="AZ25" s="11"/>
+      <c r="BA25" s="11"/>
+      <c r="BB25" s="11"/>
+      <c r="BC25" s="11"/>
+      <c r="BD25" s="11"/>
+      <c r="BE25" s="11"/>
     </row>
     <row r="26" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B26" s="4">
         <v>18540</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4">
         <v>3.1</v>
@@ -3196,7 +3195,7 @@
         <v>469</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G26" s="4">
         <v>1</v>
@@ -3212,7 +3211,7 @@
         <v>22</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>22</v>
@@ -3221,79 +3220,79 @@
         <v>22</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S26" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="T26" s="13" t="s">
+      <c r="Q26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T26" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U26" s="9">
-        <v>38.357123974710703</v>
+        <v>40.417561987414899</v>
       </c>
       <c r="V26" s="9">
-        <v>102.83104796893799</v>
-      </c>
-      <c r="W26" s="4">
-        <v>1421.5141599999899</v>
-      </c>
-      <c r="X26" s="10">
-        <v>44049</v>
-      </c>
-      <c r="Y26" s="11">
-        <v>0.53737268518518522</v>
-      </c>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
-      <c r="AV26" s="13"/>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="13"/>
-      <c r="BA26" s="13"/>
-      <c r="BB26" s="13"/>
-      <c r="BC26" s="13"/>
-      <c r="BD26" s="13"/>
-      <c r="BE26" s="13"/>
+        <v>97.114045014604898</v>
+      </c>
+      <c r="W26" s="12">
+        <v>1403.7210689999899</v>
+      </c>
+      <c r="X26" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>0.37550925925925926</v>
+      </c>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="11"/>
+      <c r="AB26" s="11"/>
+      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="11"/>
+      <c r="AF26" s="11"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
+      <c r="AJ26" s="11"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="11"/>
+      <c r="AT26" s="11"/>
+      <c r="AU26" s="11"/>
+      <c r="AV26" s="11"/>
+      <c r="AW26" s="11"/>
+      <c r="AX26" s="11"/>
+      <c r="AY26" s="11"/>
+      <c r="AZ26" s="11"/>
+      <c r="BA26" s="11"/>
+      <c r="BB26" s="11"/>
+      <c r="BC26" s="11"/>
+      <c r="BD26" s="11"/>
+      <c r="BE26" s="11"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4">
         <v>18540</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D27" s="4">
         <v>3.1</v>
@@ -3302,7 +3301,7 @@
         <v>469</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G27" s="4">
         <v>1</v>
@@ -3318,7 +3317,7 @@
         <v>22</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>22</v>
@@ -3327,79 +3326,79 @@
         <v>22</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S27" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T27" s="13" t="s">
+      <c r="Q27" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T27" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U27" s="9">
-        <v>38.357123974710703</v>
+        <v>40.417561987414899</v>
       </c>
       <c r="V27" s="9">
-        <v>102.83104796893799</v>
-      </c>
-      <c r="W27" s="4">
-        <v>1421.5141599999899</v>
-      </c>
-      <c r="X27" s="10">
-        <v>44049</v>
-      </c>
-      <c r="Y27" s="11">
-        <v>0.53737268518518522</v>
-      </c>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="13"/>
-      <c r="BA27" s="13"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="13"/>
-      <c r="BD27" s="13"/>
-      <c r="BE27" s="13"/>
+        <v>97.114045014604898</v>
+      </c>
+      <c r="W27" s="12">
+        <v>1403.7210689999899</v>
+      </c>
+      <c r="X27" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>0.37550925925925926</v>
+      </c>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="11"/>
+      <c r="BE27" s="11"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4">
         <v>18540</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D28" s="4">
         <v>3.1</v>
@@ -3408,7 +3407,7 @@
         <v>470</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="G28" s="4">
         <v>2</v>
@@ -3424,88 +3423,88 @@
         <v>24</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q28" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S28" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="T28" s="13" t="s">
+      <c r="Q28" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T28" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U28" s="9">
-        <v>38.356502959504702</v>
+        <v>40.417561987414899</v>
       </c>
       <c r="V28" s="9">
-        <v>102.825383981689</v>
-      </c>
-      <c r="W28" s="4">
-        <v>1422.6329350000001</v>
-      </c>
-      <c r="X28" s="10">
-        <v>44049</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>0.54283564814814811</v>
-      </c>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="13"/>
-      <c r="AV28" s="13"/>
-      <c r="AW28" s="13"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
-      <c r="AZ28" s="13"/>
-      <c r="BA28" s="13"/>
-      <c r="BB28" s="13"/>
-      <c r="BC28" s="13"/>
-      <c r="BD28" s="13"/>
-      <c r="BE28" s="13"/>
+        <v>97.114045014604898</v>
+      </c>
+      <c r="W28" s="12">
+        <v>1403.7210689999899</v>
+      </c>
+      <c r="X28" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>0.37550925925925926</v>
+      </c>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="11"/>
+      <c r="AF28" s="11"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+      <c r="AJ28" s="11"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="11"/>
+      <c r="AO28" s="11"/>
+      <c r="AP28" s="11"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="11"/>
+      <c r="AT28" s="11"/>
+      <c r="AU28" s="11"/>
+      <c r="AV28" s="11"/>
+      <c r="AW28" s="11"/>
+      <c r="AX28" s="11"/>
+      <c r="AY28" s="11"/>
+      <c r="AZ28" s="11"/>
+      <c r="BA28" s="11"/>
+      <c r="BB28" s="11"/>
+      <c r="BC28" s="11"/>
+      <c r="BD28" s="11"/>
+      <c r="BE28" s="11"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4">
         <v>18540</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D29" s="4">
         <v>3.1</v>
@@ -3514,7 +3513,7 @@
         <v>470</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="G29" s="4">
         <v>2</v>
@@ -3530,88 +3529,88 @@
         <v>24</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S29" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="T29" s="13" t="s">
+      <c r="Q29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T29" s="11" t="s">
         <v>49</v>
       </c>
       <c r="U29" s="9">
-        <v>38.356502959504702</v>
+        <v>40.417561987414899</v>
       </c>
       <c r="V29" s="9">
-        <v>102.825383981689</v>
-      </c>
-      <c r="W29" s="4">
-        <v>1422.6329350000001</v>
-      </c>
-      <c r="X29" s="10">
-        <v>44049</v>
-      </c>
-      <c r="Y29" s="11">
-        <v>0.54283564814814811</v>
-      </c>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="13"/>
-      <c r="AZ29" s="13"/>
-      <c r="BA29" s="13"/>
-      <c r="BB29" s="13"/>
-      <c r="BC29" s="13"/>
-      <c r="BD29" s="13"/>
-      <c r="BE29" s="13"/>
+        <v>97.114045014604898</v>
+      </c>
+      <c r="W29" s="12">
+        <v>1403.7210689999899</v>
+      </c>
+      <c r="X29" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>0.37550925925925926</v>
+      </c>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
+      <c r="AE29" s="11"/>
+      <c r="AF29" s="11"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="11"/>
+      <c r="AO29" s="11"/>
+      <c r="AP29" s="11"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="11"/>
+      <c r="AT29" s="11"/>
+      <c r="AU29" s="11"/>
+      <c r="AV29" s="11"/>
+      <c r="AW29" s="11"/>
+      <c r="AX29" s="11"/>
+      <c r="AY29" s="11"/>
+      <c r="AZ29" s="11"/>
+      <c r="BA29" s="11"/>
+      <c r="BB29" s="11"/>
+      <c r="BC29" s="11"/>
+      <c r="BD29" s="11"/>
+      <c r="BE29" s="11"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4">
         <v>18540</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4">
         <v>3.1</v>
@@ -3620,7 +3619,7 @@
         <v>470</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G30" s="4">
         <v>4</v>
@@ -3636,7 +3635,7 @@
         <v>22</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>22</v>
@@ -3645,69 +3644,217 @@
         <v>22</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="P30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q30" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="S30" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="T30" s="13" t="s">
-        <v>49</v>
+      <c r="Q30" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="U30" s="9">
-        <v>38.356502959504702</v>
+        <v>40.417561987414899</v>
       </c>
       <c r="V30" s="9">
-        <v>102.825383981689</v>
-      </c>
-      <c r="W30" s="4">
-        <v>1422.6329350000001</v>
-      </c>
-      <c r="X30" s="10">
-        <v>44049</v>
-      </c>
-      <c r="Y30" s="11">
-        <v>0.54283564814814811</v>
-      </c>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13"/>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="13"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="13"/>
-      <c r="AZ30" s="13"/>
-      <c r="BA30" s="13"/>
-      <c r="BB30" s="13"/>
-      <c r="BC30" s="13"/>
-      <c r="BD30" s="13"/>
-      <c r="BE30" s="13"/>
+        <v>97.114045014604898</v>
+      </c>
+      <c r="W30" s="12">
+        <v>1403.7210689999899</v>
+      </c>
+      <c r="X30" s="13">
+        <v>44059</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>0.37550925925925926</v>
+      </c>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" s="11"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AL30" s="11"/>
+      <c r="AM30" s="11"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="11"/>
+      <c r="AP30" s="11"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="11"/>
+      <c r="AT30" s="11"/>
+      <c r="AU30" s="11"/>
+      <c r="AV30" s="11"/>
+      <c r="AW30" s="11"/>
+      <c r="AX30" s="11"/>
+      <c r="AY30" s="11"/>
+      <c r="AZ30" s="11"/>
+      <c r="BA30" s="11"/>
+      <c r="BB30" s="11"/>
+      <c r="BC30" s="11"/>
+      <c r="BD30" s="11"/>
+      <c r="BE30" s="11"/>
+    </row>
+    <row r="31" spans="1:57" ht="18" x14ac:dyDescent="0.2">
+      <c r="F31" s="6"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="14"/>
+    </row>
+    <row r="32" spans="1:57" ht="18" x14ac:dyDescent="0.2">
+      <c r="F32" s="6"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="14"/>
+    </row>
+    <row r="33" spans="6:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="F33" s="6"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="14"/>
+    </row>
+    <row r="34" spans="6:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="F34" s="6"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="14"/>
+    </row>
+    <row r="35" spans="6:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="F35" s="6"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="14"/>
+    </row>
+    <row r="36" spans="6:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="F36" s="6"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="13"/>
+      <c r="Y36" s="14"/>
+    </row>
+    <row r="37" spans="6:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="F37" s="6"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="14"/>
+    </row>
+    <row r="38" spans="6:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="F38" s="6"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="6:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="F39" s="6"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+    </row>
+    <row r="40" spans="6:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="F40" s="6"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+    </row>
+    <row r="41" spans="6:25" ht="18" x14ac:dyDescent="0.2">
+      <c r="F41" s="6"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+    </row>
+    <row r="42" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+    </row>
+    <row r="44" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+    </row>
+    <row r="45" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+    </row>
+    <row r="46" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+    </row>
+    <row r="47" spans="6:25" x14ac:dyDescent="0.2">
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
